--- a/info.xlsx
+++ b/info.xlsx
@@ -1,37 +1,196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddudk\Desktop\pycharmprojects\KaspiKZ_TZ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8A15B6-FC4B-4DCC-B0EC-F98BED4DA4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Название статьи</t>
+  </si>
+  <si>
+    <t>Краткая информация</t>
+  </si>
+  <si>
+    <t>Содержание</t>
+  </si>
+  <si>
+    <t>Столица</t>
+  </si>
+  <si>
+    <t>Крупнейшие города</t>
+  </si>
+  <si>
+    <t>Язык(и)</t>
+  </si>
+  <si>
+    <t>Официальный язык</t>
+  </si>
+  <si>
+    <t>Религия</t>
+  </si>
+  <si>
+    <t>Денежная единица</t>
+  </si>
+  <si>
+    <t>Площадь</t>
+  </si>
+  <si>
+    <t>Население</t>
+  </si>
+  <si>
+    <t>Форма правления</t>
+  </si>
+  <si>
+    <t>Династия</t>
+  </si>
+  <si>
+    <t>Предшественники и преемники</t>
+  </si>
+  <si>
+    <t>Ссылки на внешние ресурсы</t>
+  </si>
+  <si>
+    <t>Римская империя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ри́мская импе́рия (лат.Imperium Romanum)— постреспубликанский период Древнего Рима. Как государство Римская империя включала большие территориальные владения вокруг Средиземного моря в Европе, Северной Африке и Западной Азии, управляемые императорами. От восшествия на престол Цезаря Августа в качестве первого римского императора до военной анархии третьего века Римская империя была принципатом с Италией в качестве метрополии своих провинций и городом Римом в качестве единственной столицы. Позже империей правили несколько императоров, которые разделяли контроль над Западной Римской империей и Восточной Римской империей. Рим оставался номинальной столицей обеих частей до 476 года нашей эры, когда имперские знаки отличия были отправлены в Константинополь после захвата западной столицы Равенны германскими варварами под предводительством Одоакра и последующего низложения Ромула Августула. Принятие христианства в качестве государственной церкви Римской империи в 380 году нашей эры и падение Западной Римской империи под власть германских королей условно знаменует собой конец классической античности и начало Средневековья. Из-за этих событий, наряду с постепенной эллинизацией Восточной Римской империи, историки выделяют средневековую Римскую империю, оставшуюся в восточных провинциях, как Византийскую империю.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Содержание
+1 Периодизация истории Римской империи
+2 История Римской империи
+2.1 Принципат
+2.1.1 Правление Августа (31 г. дон.э.— 14 г. н.э.)
+2.1.2 Династия Юлиев-Клавдиев: наследники Августа (14—69 гг.)
+2.1.3 Династия Флавиев (69—96)
+2.1.4 Пять хороших императоров— Антонины (96—180)
+2.1.5 Династия Северов (193—235)
+2.2 Кризис III века (235—284)
+2.3 Тетрархия и доминат (285—324)
+2.4 Реформы Диоклетиана
+2.4.1 Тетрархия
+2.4.2 Сенат
+2.4.3 Администрация
+2.4.4 Право
+2.5 Римские идеалы
+2.6 Культурная трансформация
+2.7 Константин I
+2.8 Единая империя после Константина (337—395)
+2.9 После разделения
+3 Население Римской империи
+4 Языки Римской империи
+5 Религия
+6 Военное дело
+7 Падение Западной Римской империи (395—480)
+8 Наследие Римской империи
+9 Примечания
+10 Литература
+11 Ссылки
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Рим, с 330 года— Константинополь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Рим, Константинополь, Александрия, Иерусалим, Сиракузы, Акрагант, Эфес, Карфаген, Антиохия, Коринф, Афины, Кесарея, Фарнакес (Клавдива Апамея), Пергам, Лугдун, Колония Агриппина, Медиолан, Тарент, Равенна, Лептис-Магна, Гадир, Кротон, Фессалоники, Родос, Эдесса, Аквилея, Филиппы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+латинский, древнегреческий, местные языки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+латинский, древнегреческий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+государственная— изначально римская религия, после 380 года— христианство</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5 200 000 км² на 117 год;4 250 000 км² на 161 год</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+50 000 000 чел. (около 16% населения Земли) на 14 год;60 000 000 чел. (около 20% населения Земли) на 117 год;65 000 000 чел. к 150 году (около 22%);50 000 000 чел. к 400 году (около 16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Принципат (до 284 года н.э.)Доминат (с 284 года н.э.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+5 династий, 22 отдельных представителя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Римская республика
+ Мавретания
+ Эллинистический Египет
+ Галльская империя
+ Пальмирское царство
+ Британия Железного века
+ Парфянское царство
+ Германцы
+ Набатейское царство
+ Западная Римская империя
+ Восточная Римская Империя
+ Сан-Марино
+ Галльская империя
+ Пальмирское царство
+</t>
+  </si>
+  <si>
+    <t>Медиафайлы на Викискладе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+сестерций, денарий, ауреус
+Цены выражались в сестерциях, наиболее распространённой монетой был денарий; применялись и другие монеты. См. «Монетная система Древнего Рима»
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +205,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,232 +532,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="185" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="176" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Название статьи</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Краткая информация</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Содержание</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Столица</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Крупнейшие города</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Язык(и)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Официальный язык</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Религия</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Денежная единица</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Площадь</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Население</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Форма правления</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Династия</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Предшественники и преемники</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Ссылки на внешние ресурсы</t>
-        </is>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Римская империя</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ри́мская импе́рия (лат.Imperium Romanum)— постреспубликанский период Древнего Рима. Как государство Римская империя включала большие территориальные владения вокруг Средиземного моря в Европе, Северной Африке и Западной Азии, управляемые императорами. От восшествия на престол Цезаря Августа в качестве первого римского императора до военной анархии третьего века Римская империя была принципатом с Италией в качестве метрополии своих провинций и городом Римом в качестве единственной столицы. Позже империей правили несколько императоров, которые разделяли контроль над Западной Римской империей и Восточной Римской империей. Рим оставался номинальной столицей обеих частей до 476 года нашей эры, когда имперские знаки отличия были отправлены в Константинополь после захвата западной столицы Равенны германскими варварами под предводительством Одоакра и последующего низложения Ромула Августула. Принятие христианства в качестве государственной церкви Римской империи в 380 году нашей эры и падение Западной Римской империи под власть германских королей условно знаменует собой конец классической античности и начало Средневековья. Из-за этих событий, наряду с постепенной эллинизацией Восточной Римской империи, историки выделяют средневековую Римскую империю, оставшуюся в восточных провинциях, как Византийскую империю.
-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Содержание
-1 Периодизация истории Римской империи
-2 История Римской империи
-2.1 Принципат
-2.1.1 Правление Августа (31 г. дон.э.— 14 г. н.э.)
-2.1.2 Династия Юлиев-Клавдиев: наследники Августа (14—69 гг.)
-2.1.3 Династия Флавиев (69—96)
-2.1.4 Пять хороших императоров— Антонины (96—180)
-2.1.5 Династия Северов (193—235)
-2.2 Кризис III века (235—284)
-2.3 Тетрархия и доминат (285—324)
-2.4 Реформы Диоклетиана
-2.4.1 Тетрархия
-2.4.2 Сенат
-2.4.3 Администрация
-2.4.4 Право
-2.5 Римские идеалы
-2.6 Культурная трансформация
-2.7 Константин I
-2.8 Единая империя после Константина (337—395)
-2.9 После разделения
-3 Население Римской империи
-4 Языки Римской империи
-5 Религия
-6 Военное дело
-7 Падение Западной Римской империи (395—480)
-8 Наследие Римской империи
-9 Примечания
-10 Литература
-11 Ссылки
-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Рим, с 330 года— Константинополь</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Рим, Константинополь, Александрия, Иерусалим, Сиракузы, Акрагант, Эфес, Карфаген, Антиохия, Коринф, Афины, Кесарея, Фарнакес (Клавдива Апамея), Пергам, Лугдун, Колония Агриппина, Медиолан, Тарент, Равенна, Лептис-Магна, Гадир, Кротон, Фессалоники, Родос, Эдесса, Аквилея, Филиппы</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-латинский, древнегреческий, местные языки</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-латинский, древнегреческий</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-государственная— изначально римская религия, после 380 года— христианство</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-сестерций, денарий, ауреуспоказать
-Цены выражались в сестерциях, наиболее распространённой монетой был денарий; применялись и другие монеты. См. «Монетная система Древнего Рима»
-</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-5 200 000 км² на 117 год;4 250 000 км² на 161 год</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-50 000 000 чел. (около 16% населения Земли) на 14 год;60 000 000 чел. (около 20% населения Земли) на 117 год;65 000 000 чел. к 150 году (около 22%);50 000 000 чел. к 400 году (около 16%)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Принципат (до 284 года н.э.)Доминат (с 284 года н.э.)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-5 династий, 22 отдельных представителя</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- Римская республика
- Мавретания
- Эллинистический Египет
- Галльская империя
- Пальмирское царство
- Британия Железного века
- Парфянское царство
- Германцы
- Набатейское царство
- Западная Римская империя
- Восточная Римская Империя
- Сан-Марино
- Галльская империя
- Пальмирское царство
-</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Медиафайлы на Викискладе</t>
-        </is>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
